--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_45.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_45.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Satomi Takahashi</t>
+          <t>Shota Sakamoto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
